--- a/soma_smart_slither_dasp.xlsx
+++ b/soma_smart_slither_dasp.xlsx
@@ -455,107 +455,107 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ignore</t>
+          <t>access_control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>unchecked_low_calls</t>
+          <t>arithmetic</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>reentrancy</t>
+          <t>denial_service</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>time_manipulation</t>
+          <t>reentrancy</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>unchecked_low_calls</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>denial_service</t>
+          <t>bad_randomness</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>access_control</t>
+          <t>front_running</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>arithmetic</t>
+          <t>time_manipulation</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -564,11 +564,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bad_randomness</t>
+          <t>short_addresses</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -577,11 +577,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>front_running</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -590,11 +590,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>short_addresses</t>
+          <t>Ignore</t>
         </is>
       </c>
       <c r="C13" t="n">

--- a/soma_smart_slither_dasp.xlsx
+++ b/soma_smart_slither_dasp.xlsx
@@ -455,46 +455,46 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>access_control</t>
+          <t>Ignore</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>arithmetic</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>denial_service</t>
+          <t>time_manipulation</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -520,42 +520,42 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bad_randomness</t>
+          <t>access_control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>front_running</t>
+          <t>denial_service</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>time_manipulation</t>
+          <t>arithmetic</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -564,11 +564,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>short_addresses</t>
+          <t>bad_randomness</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -577,11 +577,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>front_running</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -590,11 +590,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ignore</t>
+          <t>short_addresses</t>
         </is>
       </c>
       <c r="C13" t="n">

--- a/soma_smart_slither_dasp.xlsx
+++ b/soma_smart_slither_dasp.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2080</v>
+        <v>8675695</v>
       </c>
     </row>
     <row r="3">
@@ -468,72 +468,72 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>427</v>
+        <v>168135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>unchecked_low_calls</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31</v>
+        <v>16548</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>time_manipulation</t>
+          <t>reentrancy</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>6243</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>reentrancy</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>unchecked_low_calls</t>
+          <t>access_control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>access_control</t>
+          <t>time_manipulation</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10">
